--- a/data/trans_dic/P56$pareja-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P56$pareja-Edad-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.2890204029568252</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.3462970003418654</v>
+        <v>0.3462970003418653</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.4052484786098162</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.218223120326259</v>
+        <v>0.1722241407459962</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.445627351485011</v>
+        <v>0.4466422733371571</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.4850315018191844</v>
+        <v>0.4613549195166201</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.4235586609419201</v>
+        <v>0.4215799500675029</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.192028225111925</v>
+        <v>0.1860000132657901</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1379680105194522</v>
+        <v>0.1389628463407408</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1544007002649075</v>
+        <v>0.1633003698722826</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.262730519099369</v>
+        <v>0.2583223521636422</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2591031369672697</v>
+        <v>0.2594557792578758</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2788715365139295</v>
+        <v>0.2840908909421373</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.3182241072400706</v>
+        <v>0.3077694713198798</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.3437808099524291</v>
+        <v>0.3436790712635555</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.6783286145003835</v>
+        <v>0.7290574832923706</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8508900508705604</v>
+        <v>0.8556046978020616</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9058348525846934</v>
+        <v>0.9034025732418822</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.7047212155912964</v>
+        <v>0.7103472260522636</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.5875811937276322</v>
+        <v>0.5673534055443575</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.4134923511582753</v>
+        <v>0.4231455440355427</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.4358653955280211</v>
+        <v>0.4206381710886957</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.4394253399245792</v>
+        <v>0.4402662380470074</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.5727092889520229</v>
+        <v>0.5749762605127468</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.5231782505170388</v>
+        <v>0.5289257457210561</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.5663056433229541</v>
+        <v>0.5634905176505074</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.5045239568777762</v>
+        <v>0.5040128683465726</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.3644407327288283</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.2850982629714338</v>
+        <v>0.2850982629714336</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.03393126620816087</v>
@@ -821,7 +821,7 @@
         <v>0.09410141195452285</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.09607186389358023</v>
+        <v>0.09607186389358026</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.1571598391075135</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2500716556602295</v>
+        <v>0.2489675520034903</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2096704382455097</v>
+        <v>0.2104850375642469</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2446731379748603</v>
+        <v>0.2422000519645969</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.205210852211332</v>
+        <v>0.2132412304090537</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.06699181915606793</v>
+        <v>0.07379542077225705</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.04360124687933123</v>
+        <v>0.04401912728985356</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.0693000438871231</v>
+        <v>0.07022269425659562</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.09891952258191977</v>
+        <v>0.1014597500759472</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1173362546901813</v>
+        <v>0.1225828843664762</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.117629927719373</v>
+        <v>0.120613226834915</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1171114606202568</v>
+        <v>0.1163380783970497</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.5541949593213336</v>
+        <v>0.5675824025970544</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4853296863414244</v>
+        <v>0.4909701960021087</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4909315762670167</v>
+        <v>0.5143553297624994</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3767741010888086</v>
+        <v>0.3802690587081074</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1177292642568522</v>
+        <v>0.1216147797926114</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1742733470861839</v>
+        <v>0.1751879355017896</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1819617271647823</v>
+        <v>0.1809759670952777</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.127533689663542</v>
+        <v>0.1297255291461237</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2348953032969112</v>
+        <v>0.2286392097356961</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2321688567823663</v>
+        <v>0.2344746964576772</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.2342135421559674</v>
+        <v>0.2395737444396704</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1803093287306351</v>
+        <v>0.1818545866910796</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2993640252621798</v>
+        <v>0.2788363498317974</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3130141429743875</v>
+        <v>0.3044409036687398</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3614753873126517</v>
+        <v>0.3715686857298642</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2882034640851892</v>
+        <v>0.2940285033285617</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.06140735859065852</v>
+        <v>0.06244028264201194</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.09974279094295731</v>
+        <v>0.09993859203634255</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.0901263783773526</v>
+        <v>0.08909686377976114</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1212592061843816</v>
+        <v>0.1218513620123078</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1569314979607832</v>
+        <v>0.1612868423354065</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1741814130662922</v>
+        <v>0.166558726707617</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1837767819076121</v>
+        <v>0.1847759374319234</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1782016271123139</v>
+        <v>0.179118258023532</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.5613747212923984</v>
+        <v>0.5429366021406882</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5515191487009463</v>
+        <v>0.5569506016942597</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.5904681320569134</v>
+        <v>0.5975248281006592</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.4421319111288348</v>
+        <v>0.441398832475243</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1979217269388628</v>
+        <v>0.2077958873347163</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2026236624223709</v>
+        <v>0.2020823207788786</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2104396402769177</v>
+        <v>0.2090752228145472</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1866698345938961</v>
+        <v>0.1867254620843308</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.287676493771675</v>
+        <v>0.2961525912775483</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2804878023118416</v>
+        <v>0.276216665746826</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.3019095183625791</v>
+        <v>0.2997291478307761</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.242791409894557</v>
+        <v>0.2454800468021189</v>
       </c>
     </row>
     <row r="13">
@@ -1326,40 +1326,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>2807</v>
+        <v>2216</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>9549</v>
+        <v>9571</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>10233</v>
+        <v>9734</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>13123</v>
+        <v>13061</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>4238</v>
+        <v>4105</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>5813</v>
+        <v>5855</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>6359</v>
+        <v>6725</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>15622</v>
+        <v>15360</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>9052</v>
+        <v>9064</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>17726</v>
+        <v>18058</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>19819</v>
+        <v>19168</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>31093</v>
+        <v>31084</v>
       </c>
     </row>
     <row r="7">
@@ -1370,40 +1370,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>8727</v>
+        <v>9379</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>18234</v>
+        <v>18335</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>19111</v>
+        <v>19060</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>21834</v>
+        <v>22008</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>12967</v>
+        <v>12521</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>17423</v>
+        <v>17829</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>17950</v>
+        <v>17323</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>26129</v>
+        <v>26179</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>20007</v>
+        <v>20086</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>33255</v>
+        <v>33621</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>35270</v>
+        <v>35095</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>45631</v>
+        <v>45585</v>
       </c>
     </row>
     <row r="8">
@@ -1506,40 +1506,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>8857</v>
+        <v>8817</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>11967</v>
+        <v>12014</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>12478</v>
+        <v>12352</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>15923</v>
+        <v>16546</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>10927</v>
+        <v>12037</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>5695</v>
+        <v>5749</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>14967</v>
+        <v>15166</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>10574</v>
+        <v>10845</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>25836</v>
+        <v>26991</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>21362</v>
+        <v>21904</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>34379</v>
+        <v>34152</v>
       </c>
     </row>
     <row r="11">
@@ -1550,40 +1550,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>19627</v>
+        <v>20101</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>27701</v>
+        <v>28023</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>25037</v>
+        <v>26232</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>29235</v>
+        <v>29507</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>8415</v>
+        <v>8693</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>28426</v>
+        <v>28575</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>23765</v>
+        <v>23637</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>27543</v>
+        <v>28016</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>25108</v>
+        <v>24439</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>51120</v>
+        <v>51628</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>42534</v>
+        <v>43508</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>52932</v>
+        <v>53385</v>
       </c>
     </row>
     <row r="12">
@@ -1686,40 +1686,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>14454</v>
+        <v>13462</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>24573</v>
+        <v>23900</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>26061</v>
+        <v>26789</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>31292</v>
+        <v>31924</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>5744</v>
+        <v>5841</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>20472</v>
+        <v>20512</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>15483</v>
+        <v>15306</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>33398</v>
+        <v>33561</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>22257</v>
+        <v>22875</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>49424</v>
+        <v>47261</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>44820</v>
+        <v>45064</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>68430</v>
+        <v>68782</v>
       </c>
     </row>
     <row r="15">
@@ -1730,40 +1730,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>27104</v>
+        <v>26214</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>43297</v>
+        <v>43723</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>42571</v>
+        <v>43080</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>48005</v>
+        <v>47925</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>18515</v>
+        <v>19438</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>41587</v>
+        <v>41476</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>36151</v>
+        <v>35917</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>51414</v>
+        <v>51430</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>40800</v>
+        <v>42002</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>79588</v>
+        <v>78376</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>73631</v>
+        <v>73099</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>93233</v>
+        <v>94266</v>
       </c>
     </row>
     <row r="16">
